--- a/fichiers/SicenODK/Sicen_2022.xlsx
+++ b/fichiers/SicenODK/Sicen_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">nom prénom séparer d'un espace</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(${last-saved#user_name},${username})</t>
+    <t xml:space="preserve">if(position(..)=0,coalesce(${last-saved#user_name},${username}),’’)</t>
   </si>
   <si>
     <t xml:space="preserve">user_mail</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">saisir une adresse mail</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(${last-saved#user_mail},${email_utilisateur})</t>
+    <t xml:space="preserve">if(position(..)=0,coalesce(${last-saved#user_mail},${email_utilisateur}),’’)</t>
   </si>
   <si>
     <t xml:space="preserve">datetime</t>
@@ -2618,13 +2618,13 @@
   </sheetPr>
   <dimension ref="A1:S219"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.65234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.71"/>
@@ -5346,7 +5346,7 @@
       <selection pane="bottomLeft" activeCell="A228" activeCellId="0" sqref="A228"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.56"/>
@@ -7979,11 +7979,11 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
